--- a/Realbreeze_SEOLinks.xlsx
+++ b/Realbreeze_SEOLinks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VILLOSA\Documents\GithubClassic\SEO2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Villosa\Documents\GitHub\SEO2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E51BC9A4-0ACF-4224-9F6E-FD90A0CCEEDF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BE160A-4440-41E0-9FBE-4126CFA72A66}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8850" windowHeight="4965" activeTab="2" xr2:uid="{9CDEBFF6-07C8-4F92-80C9-4A5467FBFD28}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="8850" windowHeight="4965" xr2:uid="{9CDEBFF6-07C8-4F92-80C9-4A5467FBFD28}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="120">
   <si>
     <t>https://www.reddit.com</t>
   </si>
@@ -812,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A335A3-804B-4387-93F0-8A857100E273}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,20 +824,20 @@
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -853,8 +853,14 @@
       <c r="E3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>41</v>
       </c>
@@ -870,8 +876,14 @@
       <c r="E4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="6">
+        <v>43213</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>42</v>
       </c>
@@ -887,8 +899,14 @@
       <c r="E5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="6">
+        <v>43213</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
@@ -904,8 +922,14 @@
       <c r="E6">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="6">
+        <v>43213</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>44</v>
       </c>
@@ -921,8 +945,14 @@
       <c r="E7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="6">
+        <v>43213</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -938,8 +968,14 @@
       <c r="E8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="6">
+        <v>43213</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -955,8 +991,14 @@
       <c r="E9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="6">
+        <v>43213</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -972,8 +1014,14 @@
       <c r="E10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="6">
+        <v>43213</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -989,8 +1037,14 @@
       <c r="E11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="6">
+        <v>43213</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1006,8 +1060,14 @@
       <c r="E12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="6">
+        <v>43213</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>108</v>
       </c>
@@ -1023,8 +1083,14 @@
       <c r="E13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="6">
+        <v>43213</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>109</v>
       </c>
@@ -1040,8 +1106,14 @@
       <c r="E14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="6">
+        <v>43213</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -1057,8 +1129,14 @@
       <c r="E15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="6">
+        <v>43213</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -1074,8 +1152,14 @@
       <c r="E16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="6">
+        <v>43213</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -1091,8 +1175,14 @@
       <c r="E17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="6">
+        <v>43213</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -1103,7 +1193,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -1114,7 +1204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -1125,7 +1215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -1136,7 +1226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -1147,7 +1237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -1158,12 +1248,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>114</v>
       </c>
@@ -1345,7 +1435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58C1BFE-8B7E-4B0E-8C19-8DEC33D6F076}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
